--- a/9、综合评价方法/Pdata9_1_5.xlsx
+++ b/9、综合评价方法/Pdata9_1_5.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -55,18 +55,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -548,7 +548,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="C2" t="n">
         <v>0.5555555555555556</v>
@@ -640,7 +640,7 @@
         <v>0.72</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7407407407407408</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -660,10 +660,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.88</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5" t="n">
         <v>0.9523809523809523</v>
@@ -679,7 +679,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -810,6 +810,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>